--- a/history_pip.xlsx
+++ b/history_pip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,56 +458,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abramovitz  Nily</t>
+          <t>Ploussios  Kate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>07/18/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 108.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sahbti  Naomi</t>
+          <t>Litle  Virginia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>11/05/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$ 510.00</t>
+          <t>$ 582.00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agamov  Alla</t>
+          <t>Litle  Virginia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,41 +517,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$ 620.00</t>
+          <t>$ 240.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ploussios  Kate</t>
+          <t>Perullo  Kristen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07/18/2024</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$ 108.00</t>
+          <t>$ 1,700.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Litle  Virginia</t>
+          <t>Ford  Nicole</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/05/2024</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$ 582.00</t>
+          <t>$ 4,350.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Litle  Virginia</t>
+          <t>Goldman  Alena</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,63 +583,63 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$ 240.00</t>
+          <t>$ 2,016.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Perullo  Kristen</t>
+          <t>La Valle  Julie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$ 1,700.00</t>
+          <t>$ 420.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ford  Nicole</t>
+          <t>SHAHAL-SCHIFFER  MAERAV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>03/20/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$ 4,350.00</t>
+          <t>$ 300.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Goldman  Alena</t>
+          <t>Alivis  Giselia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/15/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,85 +649,85 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$ 2,016.00</t>
+          <t>$ 3,240.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>La Valle  Julie</t>
+          <t>Bukur-Doczy  Krisztina</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$ 420.00</t>
+          <t>$ 2,800.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHAHAL-SCHIFFER  MAERAV</t>
+          <t>Chamovitz  Fumi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>03/20/2024</t>
+          <t>01/23/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$ 300.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Customer</t>
+          <t>Conley  Jenn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Contract Date</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Assit.</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tot.</t>
+          <t>$ 3,780.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aejaz  Henna</t>
+          <t>Conviser  Holly</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03/17/2025</t>
+          <t>01/30/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aejaz  Henna</t>
+          <t>Livshits  Marina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>01/21/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,41 +759,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 180.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Agamov  Alla</t>
+          <t>Portnow  Beth</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06/13/2025</t>
+          <t>01/20/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$ 1,260.00</t>
+          <t>$ 3,204.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alivis  Giselia</t>
+          <t>Rosen  Yael</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05/12/2025</t>
+          <t>01/22/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,19 +803,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$ 3,240.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alvarez-Diez  Terri</t>
+          <t>Soiffer  Georgina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08/23/2024</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,19 +825,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$ 2,640.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bain  Emily</t>
+          <t>Tran  Sandy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,41 +847,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>$ 5,600.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barbalat  Yana</t>
+          <t>Viscomi  Rachel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>03/20/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 420.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Barbalat  Ella</t>
+          <t>Zaretsky  Liana</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>05/14/2025</t>
+          <t>03/18/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>$ 1,944.00</t>
+          <t>$ 218.75</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bedikian  Milka</t>
+          <t>Elmekawy  Sally</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02/20/2025</t>
+          <t>10/25/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -913,41 +913,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bedikian  Milka</t>
+          <t>Customer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>03/14/2025</t>
+          <t>Contract Date</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>Assit.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>$ 1,620.00</t>
+          <t>Tot.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Berlin  Galina</t>
+          <t>Aejaz  Henna</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05/14/2025</t>
+          <t>03/17/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>$ 1,944.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bernardini  Donatella</t>
+          <t>Aejaz  Henna</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05/30/2024</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,41 +979,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>$ 2,000.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bernardini  Donatella</t>
+          <t>Agamov  Alla</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>06/13/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>$ 800.00</t>
+          <t>$ 1,260.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blumberg  Kate</t>
+          <t>Alvarez-Diez  Terri</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/30/2025</t>
+          <t>08/23/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,19 +1023,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>$ 4,800.00</t>
+          <t>$ 2,640.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Blumberg  Sanya</t>
+          <t>Alvis  Giselia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>$ 640.00</t>
+          <t>$ 3,240.00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Botta  Ginevra</t>
+          <t>Bain  Emily</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02/24/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1067,41 +1067,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>$ 1,978.00</t>
+          <t>$ 5,600.00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bukur-Doczy  Krisztina</t>
+          <t>Barbalat  Yana</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>$ 2,800.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bullard  Samantha</t>
+          <t>Barbalat  Yana</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>05/27/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 3,712.50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Centeno  Alexa</t>
+          <t>Barbalat  Ella</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>05/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1133,19 +1133,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 1,944.00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chaichueathip  Sangthip</t>
+          <t>Bedikian  Milka</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05/20/2025</t>
+          <t>02/20/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1155,19 +1155,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chamovitz  Fumi</t>
+          <t>Bedikian  Milka</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/23/2025</t>
+          <t>03/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1177,19 +1177,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,620.00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chamovitz  Fumi</t>
+          <t>Berlin  Galina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03/31/2025</t>
+          <t>05/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1199,19 +1199,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,944.00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chandler  Faith</t>
+          <t>Bernardini  Donatella</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12/20/2024</t>
+          <t>05/30/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1221,19 +1221,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>$ 2,190.00</t>
+          <t>$ 1,600.00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chandler  Faith</t>
+          <t>Bernardini  Donatella</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02/10/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>$ 600.00</t>
+          <t>$ 1,200.00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cohen  Dana</t>
+          <t>Blumberg  Kate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03/21/2025</t>
+          <t>01/30/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1265,19 +1265,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 4,360.00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cohen  Dana</t>
+          <t>Blumberg  Sanya</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1287,19 +1287,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>$ 1,620.00</t>
+          <t>$ 640.00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cohen  Dana</t>
+          <t>Bograd  Anna</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,41 +1309,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>$ 600.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colberth  Jen</t>
+          <t>Botta  Ginevra</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>02/24/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>$ 50.00</t>
+          <t>$ 1,978.00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Collazo  Diana</t>
+          <t>Bullard  Samantha</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>05/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1353,63 +1353,63 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>$ 1,920.00</t>
+          <t>$ 2,700.00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Conley  Jenn</t>
+          <t>Centeno  Alexa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>$ 3,780.00</t>
+          <t>$ 1,800.00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Connolly  Stacy</t>
+          <t>Chaichueathip  Sangthip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05/20/2024</t>
+          <t>05/20/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>$ 570.00</t>
+          <t>$ 2,700.00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Connolly  Stacy</t>
+          <t>Chamovitz  Fumi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>03/31/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1419,19 +1419,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>$ 300.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Conviser  Holly</t>
+          <t>Chandler  Faith</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/30/2025</t>
+          <t>12/20/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,19 +1441,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>$ 2,400.00</t>
+          <t>$ 2,190.00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Conviser  Holly</t>
+          <t>Chandler  Faith</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06/02/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,19 +1463,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>$ 2,400.00</t>
+          <t>$ 600.00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Corr  Beth</t>
+          <t>Cohen  Dana</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>03/21/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1485,19 +1485,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>$ 200.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dalarcao  irina</t>
+          <t>Cohen  Dana</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/09/2024</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,19 +1507,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>$ 1,200.00</t>
+          <t>$ 1,620.00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dalarcao  irina</t>
+          <t>Cohen  Dana</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>06/20/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1529,41 +1529,41 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>$ 102.00</t>
+          <t>$ 600.00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Delcroix  Olga</t>
+          <t>Colberth  Jen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06/24/2025</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>$ 1,620.00</t>
+          <t>$ 50.00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Demartini  Denise</t>
+          <t>Collazo  Diana</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>02/12/2025</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1573,63 +1573,63 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$ 1,680.00</t>
+          <t>$ 1,920.00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Demartini  Denise</t>
+          <t>Conley  Jenn</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05/22/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$ 1,680.00</t>
+          <t>$ 3,780.00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ding  June</t>
+          <t>Connolly  Stacy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/12/2024</t>
+          <t>05/20/2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$ 3,201.00</t>
+          <t>$ 170.00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eilam  Revital</t>
+          <t>Connolly  Stacy</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03/13/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,19 +1639,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>$ 1,920.00</t>
+          <t>$ 450.00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Elhossary  Rodyna</t>
+          <t>Conviser  Holly</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>06/02/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>$ 476.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Elhossary Dina</t>
+          <t>Corr  Beth</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10/25/2024</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>$ 1,650.00</t>
+          <t>$ 200.00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Elkind  Stephanie</t>
+          <t>dalarcao  irina</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,19 +1705,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>$ 1,020.00</t>
+          <t>$ 1,200.00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Elkind  Stephanie</t>
+          <t>dalarcao  irina</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05/28/2025</t>
+          <t>06/20/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>$ 2,560.00</t>
+          <t>$ 102.00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Elmekawy  Sally</t>
+          <t>Delcroix  Olga</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/25/2024</t>
+          <t>06/24/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>$ 550.00</t>
+          <t>$ 3,240.00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Evans  Gretchen</t>
+          <t>Demartini  Denise</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>03/13/2025</t>
+          <t>02/12/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Flynn  Lindsay</t>
+          <t>Demartini  Denise</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>05/22/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,41 +1793,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fynn-thompson  Nicoletta</t>
+          <t>Ding  June</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05/14/2025</t>
+          <t>10/12/2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>$ 3,213.00</t>
+          <t>$ 3,201.00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gardner  Elizabeth</t>
+          <t>Eilam  Revital</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04/18/2025</t>
+          <t>03/13/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,19 +1837,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>$ 2,400.00</t>
+          <t>$ 1,920.00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gardner  Annabelle</t>
+          <t>Elhossary  Rodyna</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06/18/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>$ 550.00</t>
+          <t>$ 340.00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Germand  Lena</t>
+          <t>Elhossary Dina</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01/29/2025</t>
+          <t>10/25/2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,19 +1881,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>$ 1,620.00</t>
+          <t>$ 1,100.00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Germand  Lena</t>
+          <t>Elkind  Stephanie</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04/14/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>$ 1,620.00</t>
+          <t>$ 1,020.00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Goldwater  Robin</t>
+          <t>Elkind  Stephanie</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>04/08/2024</t>
+          <t>05/28/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,19 +1925,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>$ 550.00</t>
+          <t>$ 3,840.00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gurevich  Maria</t>
+          <t>Evans  Gretchen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>03/31/2025</t>
+          <t>03/13/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>$ 5,400.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Higgins  Emily</t>
+          <t>Flynn  Lindsay</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>04/15/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>$ 51.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jacobs  Ellen</t>
+          <t>Fynn-thompson  Nicoletta</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02/13/2025</t>
+          <t>05/14/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,19 +1991,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>$ 99.00</t>
+          <t>$ 3,213.00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jain  Priya</t>
+          <t>Ganguly  Shree</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08/08/2024</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>$ 3,201.00</t>
+          <t>$ 900.00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Johnston  Suzanne</t>
+          <t>Gardner  Elizabeth</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11/27/2024</t>
+          <t>04/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2035,19 +2035,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>$ 2,800.02</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kagan  Olga</t>
+          <t>Gardner  Annabelle</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>05/23/2025</t>
+          <t>06/18/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>$ 1,404.80</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kantor  Lisa</t>
+          <t>Gardner  Annabelle</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11/25/2024</t>
+          <t>07/29/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2079,19 +2079,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>$ 2,640.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kasparova  Olga</t>
+          <t>Germand  Lena</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>02/08/2025</t>
+          <t>01/29/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2101,19 +2101,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>$ 3,105.00</t>
+          <t>$ 920.00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Keuchakarian  Joelle</t>
+          <t>Germand  Lena</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>04/18/2025</t>
+          <t>04/14/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2123,19 +2123,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>$ 700.00</t>
+          <t>$ 1,620.00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kipreos  Tina</t>
+          <t>Goldwater  Robin</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>02/28/2025</t>
+          <t>04/08/2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2145,19 +2145,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$ 2,880.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kipreos  Tina</t>
+          <t>Gurevich  Maria</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08/08/2025</t>
+          <t>03/31/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>$ 1,770.00</t>
+          <t>$ 5,400.00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kirshenbaum  Kathryn</t>
+          <t>Hadar  Nicole</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>02/20/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$ 2,016.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kirshenbaum  Kathryn</t>
+          <t>Higgins  Emily</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>05/29/2025</t>
+          <t>04/15/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2211,19 +2211,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$ 3,456.00</t>
+          <t>$ 51.00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Laden  Francine</t>
+          <t>Jacobs  Ellen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>02/08/2025</t>
+          <t>02/13/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,19 +2233,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$ 2,040.00</t>
+          <t>$ 99.00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Laden  Francine</t>
+          <t>Jain  Priya</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>04/30/2025</t>
+          <t>08/08/2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2255,19 +2255,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>$ 2,040.00</t>
+          <t>$ 3,201.00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LaGana  Ellen</t>
+          <t>Johnston  Suzanne</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>11/27/2024</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2277,19 +2277,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>$ 1,685.00</t>
+          <t>$ 2,800.02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lanciloti  Dana</t>
+          <t>Kagan  Olga</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>04/16/2025</t>
+          <t>05/23/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,19 +2299,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>$ 3,528.00</t>
+          <t>$ 1,809.60</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lanciloti  Violet</t>
+          <t>Kahana  Sara</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>05/23/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2321,19 +2321,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>$ 550.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lavin  Claudia</t>
+          <t>Kantor  Lisa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>02/05/2025</t>
+          <t>11/25/2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2343,19 +2343,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>$ 4,200.00</t>
+          <t>$ 2,640.00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LeBlanc  Hallie</t>
+          <t>Kasparova  Olga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07/30/2024</t>
+          <t>02/08/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2365,41 +2365,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>$ 3,102.00</t>
+          <t>$ 3,105.00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Levin  Lubov</t>
+          <t>Keuchakarian  Joelle</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10/24/2022</t>
+          <t>04/18/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>$ 396.00</t>
+          <t>$ 700.00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Livshits  Marina</t>
+          <t>Kipreos  Tina</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01/21/2025</t>
+          <t>02/28/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,19 +2409,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>$ 180.00</t>
+          <t>$ 2,880.00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Livshits  Marina</t>
+          <t>Kipreos  Tina</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>04/23/2025</t>
+          <t>08/08/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,770.00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lubin  Susan</t>
+          <t>Kirshenbaum  Kathryn</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>03/18/2025</t>
+          <t>02/20/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,19 +2453,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 2,016.00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Magnone  Maria Chiara</t>
+          <t>Kirshenbaum  Kathryn</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06/28/2025</t>
+          <t>05/29/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2475,19 +2475,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>$ 990.00</t>
+          <t>$ 3,456.00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Magovcevic-Liebisch  Ivana</t>
+          <t>Laden  Francine</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>02/21/2025</t>
+          <t>02/08/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2497,19 +2497,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>$ 892.50</t>
+          <t>$ 2,040.00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Magovcevic-Liebisch  Ivana</t>
+          <t>Laden  Francine</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>04/30/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,19 +2519,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>$ 892.50</t>
+          <t>$ 2,040.00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Maor  Rachel</t>
+          <t>LaGana  Ellen</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>12/06/2024</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2541,19 +2541,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>$ 850.00</t>
+          <t>$ 1,685.00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Matov  Olena</t>
+          <t>Lanciloti  Dana</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>04/16/2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,19 +2563,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$ 1,680.00</t>
+          <t>$ 3,528.00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>McDonald  Devon</t>
+          <t>Lanciloti  Violet</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>05/16/2025</t>
+          <t>05/23/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,19 +2585,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>$ 50.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Megrian  Katie</t>
+          <t>Lanciloti  Violet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>02/12/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2607,19 +2607,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>$ 450.00</t>
+          <t>$ 550.00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Megrian  Katie</t>
+          <t>Lavin  Claudia</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>03/24/2025</t>
+          <t>02/05/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>$ 1,860.00</t>
+          <t>$ 4,200.00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mensoian  Martha</t>
+          <t>LeBlanc  Hallie</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>07/30/2024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2651,41 +2651,41 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 2,585.00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mensoian  Martha</t>
+          <t>Levin  Lubov</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>04/30/2025</t>
+          <t>10/24/2022</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>$ 2,700.00</t>
+          <t>$ 396.00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mirafzali  Sherry</t>
+          <t>Livshits  Marina</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>04/28/2025</t>
+          <t>04/23/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2695,19 +2695,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>$ 2,940.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mirafzali  Mohammed</t>
+          <t>Lubin  Susan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>04/28/2025</t>
+          <t>03/18/2025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2717,41 +2717,41 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>$ 2,940.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Morson  Jessica</t>
+          <t>Magnone  Maria Chiara</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>06/28/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>$ 340.00</t>
+          <t>$ 990.00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mulman  Kelsy</t>
+          <t>Magovcevic-Liebisch  Ivana</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>03/14/2025</t>
+          <t>02/21/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2761,19 +2761,19 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>$ 4,320.00</t>
+          <t>$ 892.50</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Namiranian  Mandana</t>
+          <t>Magovcevic-Liebisch  Ivana</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>03/29/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2783,19 +2783,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>$ 2,400.00</t>
+          <t>$ 892.50</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Natapov  Maria</t>
+          <t>Maor  Rachel</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2805,19 +2805,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 850.00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Notaroberto  Rosa</t>
+          <t>Matov  Olena</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>03/31/2025</t>
+          <t>07/15/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2827,19 +2827,19 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Notaroberto  Rosa</t>
+          <t>McDonald  Devon</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>05/16/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$ 3,780.00</t>
+          <t>$ 50.00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Parker  Marilyn</t>
+          <t>Megrian  Katie</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>02/18/2025</t>
+          <t>02/12/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2871,19 +2871,19 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 450.00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Parker  Marilyn</t>
+          <t>Megrian  Katie</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>03/13/2025</t>
+          <t>03/24/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2893,41 +2893,41 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$ 1,890.00</t>
+          <t>$ 2,325.00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Perelman  Eugenia</t>
+          <t>Mensoian  Martha</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>12/05/2024</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$ 900.00</t>
+          <t>$ 1,800.00</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Perez Capotosto  Melissa</t>
+          <t>Mensoian  Martha</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>04/30/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2937,19 +2937,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$ 2,100.00</t>
+          <t>$ 2,700.00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Philips  Anya</t>
+          <t>Mensoian  Martha</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>03/24/2025</t>
+          <t>07/22/2025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2959,19 +2959,19 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>$ 5,400.00</t>
+          <t>$ 540.00</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ploussios  Kate</t>
+          <t>Mirafzali  Sherry</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>04/23/2025</t>
+          <t>04/28/2025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2981,19 +2981,19 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>$ 1,260.00</t>
+          <t>$ 2,940.00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Portnow  Beth</t>
+          <t>Mirafzali  Mohammed</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>01/20/2025</t>
+          <t>04/28/2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3003,19 +3003,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$ 3,204.00</t>
+          <t>$ 2,940.00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ramiel  Irina</t>
+          <t>Morson  Jessica</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>02/17/2025</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3025,19 +3025,19 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>$ 1,890.00</t>
+          <t>$ 340.00</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Rosen  Yael</t>
+          <t>Mulman  Kelsy</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01/22/2025</t>
+          <t>03/14/2025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3047,19 +3047,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>$ 1,680.00</t>
+          <t>$ 4,320.00</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Rosen  Yael</t>
+          <t>Namiranian  Mandana</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>04/17/2025</t>
+          <t>03/29/2025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3069,19 +3069,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>$ 1,680.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sahbti  Naomi</t>
+          <t>Natapov  Maria</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>02/13/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>$ 3,384.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SCOTTO  DANIELA</t>
+          <t>Notaroberto  Rosa</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>03/26/2025</t>
+          <t>03/31/2025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3113,19 +3113,19 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 2,160.00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Seth  Jessica (Cici)</t>
+          <t>Notaroberto  Rosa</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>03/18/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3135,19 +3135,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$ 2,040.00</t>
+          <t>$ 3,780.00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Shaar  Anna</t>
+          <t>Parker  Marilyn</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>02/18/2025</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3157,19 +3157,19 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>$ 900.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SHAHAL-SCHIFFER  MAERAV</t>
+          <t>Parker  Marilyn</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>03/13/2025</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3179,41 +3179,41 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>$ 1,800.00</t>
+          <t>$ 1,890.00</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sharav Zalkind  Karin</t>
+          <t>Perelman  Eugenia</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>12/05/2024</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>$ 3,102.00</t>
+          <t>$ 900.00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Shein  Cheray</t>
+          <t>Perez Capotosto  Melissa</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>05/22/2025</t>
+          <t>09/03/2024</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3223,19 +3223,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>$ 1,512.00</t>
+          <t>$ 2,100.00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Shpigel  Anna</t>
+          <t>Philips  Anya</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
+          <t>03/24/2025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3245,19 +3245,19 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$ 2,640.00</t>
+          <t>$ 5,400.00</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Silva  Rose</t>
+          <t>Pleskow  Heather</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>07/26/2025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3267,19 +3267,19 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$ 3,240.00</t>
+          <t>$ 3,780.00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Simons  Jamie</t>
+          <t>Ploussios  Kate</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>04/23/2025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3289,41 +3289,41 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>$ 2,970.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sims  Maria</t>
+          <t>Ramiel  Irina</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>02/17/2025</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>$ 640.00</t>
+          <t>$ 1,890.00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sky Babushkina  Natasha</t>
+          <t>Rosen  Yael</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>05/27/2025</t>
+          <t>04/17/2025</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3333,19 +3333,19 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>$ 1,600.00</t>
+          <t>$ 1,680.00</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Snyder  Kathleen</t>
+          <t>Sahbti  Naomi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>02/13/2025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3355,19 +3355,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>$ 2,048.00</t>
+          <t>$ 3,384.00</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Soiffer  Georgina</t>
+          <t>SCOTTO  DANIELA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>03/26/2025</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3377,19 +3377,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 2,430.00</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sokol  Alisa</t>
+          <t>Seth  Jessica (Cici)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>06/18/2025</t>
+          <t>03/18/2025</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3399,63 +3399,63 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>$ 1,280.00</t>
+          <t>$ 2,040.00</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Soto  Janice</t>
+          <t>Shaar  Anna</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>09/30/2024</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>$ 4,200.00</t>
+          <t>$ 450.00</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Spivak  Raya</t>
+          <t>SHAHAL-SCHIFFER  MAERAV</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>06/13/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>$ 4,410.00</t>
+          <t>$ 2,100.00</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Suckerman  Stacey</t>
+          <t>Sharav Zalkind  Karin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01/24/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3465,19 +3465,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>$ 3,384.00</t>
+          <t>$ 3,102.00</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sung  Ali</t>
+          <t>Shein  Cheray</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>02/19/2025</t>
+          <t>05/22/2025</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3487,19 +3487,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>$ 2,016.00</t>
+          <t>$ 1,512.00</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sung  Ali</t>
+          <t>Shpigel  Anna</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>05/19/2025</t>
+          <t>07/25/2024</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3509,41 +3509,41 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>$ 2,304.00</t>
+          <t>$ 2,200.00</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Swartz  Esmeralda</t>
+          <t>Shpigel  Anna</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>$ 4,800.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Swyers  Karen</t>
+          <t>Silva  Rose</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>05/13/2025</t>
+          <t>05/02/2025</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3553,41 +3553,41 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>$ 700.00</t>
+          <t>$ 3,240.00</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Swyers  Karen</t>
+          <t>Silva  Rose</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>06/13/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>##</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 540.00</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Swyers  Karen</t>
+          <t>Simons  Jamie</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3597,19 +3597,19 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>$ 540.00</t>
+          <t>$ 2,970.00</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Theodorou Maria</t>
+          <t>Sims  Maria</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3619,19 +3619,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>$ 900.00</t>
+          <t>$ 640.00</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Theodorou Maria</t>
+          <t>Sky Babushkina  Natasha</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>04/09/2025</t>
+          <t>05/27/2025</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3641,19 +3641,19 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 2,400.00</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Theodorou Maria</t>
+          <t>Snyder  Kathleen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3663,19 +3663,19 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>$ 3,780.00</t>
+          <t>$ 2,048.00</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Tran  Sandy</t>
+          <t>Sokol  Alisa</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>06/18/2025</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3685,63 +3685,63 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 1,280.00</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Tuohy  Diane</t>
+          <t>Soto  Janice</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>02/28/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$ 450.00</t>
+          <t>$ 4,200.00</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Tverskaya  Alena</t>
+          <t>Spivak  Raya</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>02/28/2025</t>
+          <t>06/13/2025</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>$ 99.00</t>
+          <t>$ 4,410.00</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Tyler  Tricia</t>
+          <t>Suckerman  Stacey</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>01/24/2025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3751,41 +3751,41 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$ 2,160.00</t>
+          <t>$ 2,256.00</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Velez  Alexandra</t>
+          <t>Suckerman  Stacey</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>$ 1,500.00</t>
+          <t>$ 1,496.25</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Verdun  Elisabetta</t>
+          <t>Sung  Ali</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>02/19/2025</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3795,19 +3795,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$ 2,430.00</t>
+          <t>$ 2,016.00</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Viscomi  Rachel</t>
+          <t>Sung  Ali</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>03/20/2024</t>
+          <t>05/19/2025</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3817,19 +3817,19 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>$ 420.00</t>
+          <t>$ 2,304.00</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Volkovich  Julia</t>
+          <t>Swartz  Esmeralda</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3839,19 +3839,19 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>$ 4,320.00</t>
+          <t>$ 4,800.00</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Walmsley  Mabel</t>
+          <t>Swyers  Karen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>03/21/2025</t>
+          <t>05/13/2025</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3861,24 +3861,24 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>$ 1,920.00</t>
+          <t>$ 700.00</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Yablonovsky  Lina</t>
+          <t>Swyers  Karen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>06/13/2025</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>##</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3890,12 +3890,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Zaretsky  Liana</t>
+          <t>Swyers  Karen</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>03/18/2024</t>
+          <t>07/02/2025</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3905,17 +3905,303 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>$ 218.75</t>
+          <t>$ 540.00</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Theodorou Maria</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>$  289,298.57</t>
+          <t>$ 900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Theodorou Maria</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>04/09/2025</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>$ 2,160.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Theodorou Maria</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>07/14/2025</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>$ 3,780.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tuohy  Diane</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>02/28/2025</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>$ 450.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tverskaya  Alena</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>02/28/2025</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>$ 99.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tyler  Tricia</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>$ 2,160.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Vallila  Kristine</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07/22/2025</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$ 2,700.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Velez  Alexandra</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>$ 1,500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Verdun  Elisabetta</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>$ 2,430.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Volkovich  Julia</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>06/30/2025</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>$ 4,320.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Walmsley  Mabel</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>03/21/2025</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>$ 1,920.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Yablonovsky  Lina</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>$ 2,160.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Yablonovsky  Lina</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>$ 2,160.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>$  298,553.37</t>
         </is>
       </c>
     </row>
